--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GiaThanh.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102V" sheetId="39" r:id="rId1"/>
-    <sheet name="TG102LE" sheetId="38" r:id="rId2"/>
+    <sheet name="TG102LE" sheetId="38" r:id="rId1"/>
+    <sheet name="TG102V" sheetId="39" r:id="rId2"/>
     <sheet name="TG102E" sheetId="37" r:id="rId3"/>
     <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102E!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TG102E!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -251,6 +251,24 @@
   <si>
     <t>Thiết bị hỏng diode chống quá áp</t>
   </si>
+  <si>
+    <t>Thay diode chống quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG, NCFW</t>
+  </si>
+  <si>
+    <t>202101161020047</t>
+  </si>
 </sst>
 </file>
 
@@ -455,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -658,6 +676,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,31 +718,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:C49"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1042,43 +1063,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1123,58 +1144,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1199,23 +1220,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1227,29 +1248,43 @@
       </c>
       <c r="C6" s="63"/>
       <c r="D6" s="37" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E6" s="38">
-        <v>866192037822069</v>
+        <v>868183033864872</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
+      <c r="I6" s="54" t="s">
+        <v>68</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="39"/>
+      <c r="K6" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1266,33 +1301,47 @@
       </c>
       <c r="C7" s="63"/>
       <c r="D7" s="37" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E7" s="38">
-        <v>866192037769096</v>
+        <v>867717030420047</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="83" t="s">
+        <v>76</v>
+      </c>
       <c r="I7" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K7" s="39" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>75</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1302,26 +1351,48 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="63">
+        <v>44622</v>
+      </c>
       <c r="C8" s="63"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>867857039894089</v>
+      </c>
       <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
+      <c r="I8" s="54" t="s">
+        <v>68</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1331,26 +1402,50 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="63">
+        <v>44622</v>
+      </c>
       <c r="C9" s="63"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868183038579723</v>
+      </c>
       <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="39"/>
+      <c r="I9" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>75</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1379,7 +1474,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1408,7 +1503,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1437,7 +1532,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1468,7 +1563,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1497,7 +1592,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1526,7 +1621,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1555,7 +1650,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1674,7 +1769,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1738,7 +1833,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -1951,7 +2046,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2143,7 +2238,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2207,7 +2302,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2786,13 +2881,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2804,6 +2892,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2814,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView showZeros="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2847,43 +2942,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -2928,58 +3023,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3004,23 +3099,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3032,23 +3127,19 @@
       </c>
       <c r="C6" s="63"/>
       <c r="D6" s="37" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E6" s="38">
-        <v>868183033864872</v>
+        <v>866192037822069</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="54" t="s">
-        <v>68</v>
-      </c>
+      <c r="I6" s="54"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="39" t="s">
-        <v>67</v>
-      </c>
+      <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
       <c r="N6" s="1"/>
@@ -3058,7 +3149,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3075,19 +3166,23 @@
       </c>
       <c r="C7" s="63"/>
       <c r="D7" s="37" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E7" s="38">
-        <v>867717030420047</v>
+        <v>866192037769096</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37" t="s">
         <v>63</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
+      <c r="I7" s="54" t="s">
+        <v>66</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
+      <c r="K7" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="1"/>
@@ -3097,7 +3192,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3107,28 +3202,16 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="63">
-        <v>44622</v>
-      </c>
+      <c r="B8" s="63"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="38">
-        <v>867857039894089</v>
-      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="37" t="s">
-        <v>63</v>
-      </c>
+      <c r="G8" s="37"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="54" t="s">
-        <v>68</v>
-      </c>
+      <c r="I8" s="54"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="39" t="s">
-        <v>69</v>
-      </c>
+      <c r="K8" s="39"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
       <c r="N8" s="1"/>
@@ -3138,7 +3221,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3148,30 +3231,16 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="63">
-        <v>44622</v>
-      </c>
+      <c r="B9" s="63"/>
       <c r="C9" s="63"/>
-      <c r="D9" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="38">
-        <v>868183038579723</v>
-      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="37" t="s">
-        <v>63</v>
-      </c>
+      <c r="G9" s="37"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>69</v>
-      </c>
+      <c r="I9" s="48"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="39"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
       <c r="N9" s="1"/>
@@ -3181,7 +3250,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3210,7 +3279,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3239,7 +3308,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3268,7 +3337,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3299,7 +3368,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3328,7 +3397,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3357,7 +3426,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3386,7 +3455,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4617,13 +4686,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4635,6 +4697,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4646,7 +4715,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4678,43 +4747,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4759,58 +4828,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -4835,23 +4904,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4874,18 +4943,30 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>75</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4916,7 +4997,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4945,7 +5026,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4974,7 +5055,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5003,7 +5084,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5032,7 +5113,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5061,7 +5142,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5092,7 +5173,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5121,7 +5202,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5150,7 +5231,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5179,7 +5260,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5362,7 +5443,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -5575,7 +5656,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -5767,7 +5848,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -5831,7 +5912,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6410,13 +6491,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6428,6 +6502,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6471,41 +6552,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6550,58 +6631,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6626,23 +6707,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6668,7 +6749,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6699,7 +6780,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6728,7 +6809,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6757,7 +6838,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6786,7 +6867,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6815,7 +6896,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6844,7 +6925,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6875,7 +6956,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6904,7 +6985,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6933,7 +7014,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6962,7 +7043,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8193,6 +8274,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8204,13 +8292,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GiaThanh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="38" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -249,12 +249,6 @@
     <t>LE.2.00.---28.200624</t>
   </si>
   <si>
-    <t>Thiết bị hỏng diode chống quá áp</t>
-  </si>
-  <si>
-    <t>Thay diode chống quá áp, nâng cấp FW</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
@@ -268,6 +262,27 @@
   </si>
   <si>
     <t>202101161020047</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay simn+FW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
   </si>
 </sst>
 </file>
@@ -676,6 +691,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -719,9 +737,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1063,43 +1078,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1144,58 +1159,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1220,23 +1235,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1246,7 +1261,9 @@
       <c r="B6" s="63">
         <v>44622</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44628</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -1271,10 +1288,10 @@
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>19</v>
@@ -1284,7 +1301,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1299,7 +1316,9 @@
       <c r="B7" s="63">
         <v>44622</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="63">
+        <v>44628</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -1310,38 +1329,38 @@
       <c r="G7" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="83" t="s">
-        <v>76</v>
+      <c r="H7" s="68" t="s">
+        <v>74</v>
       </c>
       <c r="I7" s="54" t="s">
         <v>68</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K7" s="39" t="s">
         <v>69</v>
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="37" t="s">
         <v>73</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" s="37" t="s">
-        <v>75</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1354,7 +1373,9 @@
       <c r="B8" s="63">
         <v>44622</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="63">
+        <v>44628</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -1379,10 +1400,10 @@
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>19</v>
@@ -1392,7 +1413,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1405,7 +1426,9 @@
       <c r="B9" s="63">
         <v>44622</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="63">
+        <v>44628</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -1421,31 +1444,31 @@
         <v>68</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K9" s="39" t="s">
         <v>69</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="R9" s="37" t="s">
         <v>73</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="37" t="s">
-        <v>75</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1474,7 +1497,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1503,7 +1526,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1532,7 +1555,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1563,7 +1586,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1592,7 +1615,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1621,7 +1644,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1650,7 +1673,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2909,8 +2932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2942,43 +2965,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3023,58 +3046,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3099,23 +3122,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3125,7 +3148,9 @@
       <c r="B6" s="63">
         <v>44622</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44628</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -3137,19 +3162,39 @@
         <v>63</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="I6" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="3"/>
+      <c r="O6" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="T6" s="67"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3164,7 +3209,9 @@
       <c r="B7" s="63">
         <v>44622</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="63">
+        <v>44628</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>64</v>
       </c>
@@ -3179,20 +3226,36 @@
       <c r="I7" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K7" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="3"/>
+      <c r="O7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="T7" s="67"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3203,7 +3266,6 @@
         <v>3</v>
       </c>
       <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
       <c r="F8" s="37"/>
@@ -3221,7 +3283,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3250,7 +3312,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3279,7 +3341,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3308,7 +3370,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3337,7 +3399,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3368,7 +3430,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3397,7 +3459,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3426,7 +3488,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3455,7 +3517,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3638,7 +3700,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -4043,7 +4105,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4107,7 +4169,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4714,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4747,43 +4809,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4828,58 +4890,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -4904,23 +4966,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4930,7 +4992,9 @@
       <c r="B6" s="63">
         <v>44622</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44628</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -4944,29 +5008,29 @@
       <c r="H6" s="37"/>
       <c r="I6" s="54"/>
       <c r="J6" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="37" t="s">
         <v>73</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R6" s="37" t="s">
-        <v>75</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4997,7 +5061,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5026,7 +5090,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5055,7 +5119,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5084,7 +5148,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5113,7 +5177,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5142,7 +5206,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5173,7 +5237,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5202,7 +5266,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5231,7 +5295,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5260,7 +5324,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6552,41 +6616,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6631,58 +6695,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6707,23 +6771,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6749,7 +6813,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6780,7 +6844,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6809,7 +6873,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6838,7 +6902,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6867,7 +6931,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6896,7 +6960,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6925,7 +6989,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6956,7 +7020,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6985,7 +7049,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7014,7 +7078,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7043,7 +7107,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GiaThanh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="38" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -694,30 +694,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,6 +711,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1078,43 +1078,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1159,58 +1159,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1235,23 +1235,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="W12" s="67"/>
     </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2904,6 +2904,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2915,13 +2922,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2932,8 +2932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2965,43 +2965,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3046,58 +3046,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3122,23 +3122,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3194,7 +3194,7 @@
         <v>78</v>
       </c>
       <c r="T6" s="67"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3255,7 +3255,7 @@
         <v>78</v>
       </c>
       <c r="T7" s="67"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3399,7 +3399,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3430,7 +3430,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4748,6 +4748,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4759,13 +4766,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4776,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4809,43 +4809,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4890,58 +4890,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -4966,23 +4966,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5061,7 +5061,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5090,7 +5090,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5119,7 +5119,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5177,7 +5177,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5206,7 +5206,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5237,7 +5237,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5266,7 +5266,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5295,7 +5295,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5324,7 +5324,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6555,6 +6555,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6566,13 +6573,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6583,8 +6583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6616,41 +6616,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6695,58 +6695,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6771,49 +6771,73 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="69"/>
       <c r="P5" s="83"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="76"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="37"/>
+      <c r="B6" s="63">
+        <v>44622</v>
+      </c>
+      <c r="C6" s="63">
+        <v>44628</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="38">
+        <v>868183033864872</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
+      <c r="I6" s="54" t="s">
+        <v>68</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="39"/>
+      <c r="K6" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6825,26 +6849,54 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="63">
+        <v>44622</v>
+      </c>
+      <c r="C7" s="63">
+        <v>44628</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="38">
+        <v>867717030420047</v>
+      </c>
       <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
+      <c r="G7" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>73</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6854,26 +6906,50 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="37"/>
+      <c r="B8" s="63">
+        <v>44622</v>
+      </c>
+      <c r="C8" s="63">
+        <v>44628</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>867857039894089</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
+      <c r="I8" s="54" t="s">
+        <v>68</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6883,26 +6959,52 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="39"/>
+      <c r="B9" s="63">
+        <v>44622</v>
+      </c>
+      <c r="C9" s="63">
+        <v>44628</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868183038579723</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>73</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6912,26 +7014,56 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="63">
+        <v>44622</v>
+      </c>
+      <c r="C10" s="63">
+        <v>44628</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="38">
+        <v>866192037822069</v>
+      </c>
       <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="I10" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
+      <c r="O10" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="T10" s="41"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6941,26 +7073,56 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
+      <c r="B11" s="63">
+        <v>44622</v>
+      </c>
+      <c r="C11" s="63">
+        <v>44628</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="38">
+        <v>866192037769096</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="I11" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="3"/>
+      <c r="O11" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="T11" s="41"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6970,26 +7132,48 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="63">
+        <v>44622</v>
+      </c>
+      <c r="C12" s="63">
+        <v>44628</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="38">
+        <v>860906041156347</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="37"/>
       <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>73</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7020,7 +7204,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7049,7 +7233,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7078,7 +7262,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7107,7 +7291,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7226,7 +7410,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -7290,7 +7474,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -7503,7 +7687,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -7695,7 +7879,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -7759,7 +7943,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8338,13 +8522,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8356,6 +8533,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
